--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Myoc</t>
+  </si>
+  <si>
+    <t>Fzd1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Myoc</t>
-  </si>
-  <si>
-    <t>Fzd1</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3278200000000001</v>
+        <v>1.027975333333333</v>
       </c>
       <c r="H2">
-        <v>0.9834600000000001</v>
+        <v>3.083926</v>
       </c>
       <c r="I2">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="J2">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5018866666666666</v>
+        <v>1.090710333333333</v>
       </c>
       <c r="N2">
-        <v>1.50566</v>
+        <v>3.272131</v>
       </c>
       <c r="O2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="P2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="Q2">
-        <v>0.1645284870666667</v>
+        <v>1.121223318478444</v>
       </c>
       <c r="R2">
-        <v>1.4807563836</v>
+        <v>10.091009866306</v>
       </c>
       <c r="S2">
-        <v>0.000222016174810761</v>
+        <v>0.001428677719554396</v>
       </c>
       <c r="T2">
-        <v>0.000222016174810761</v>
+        <v>0.001428677719554396</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3278200000000001</v>
+        <v>1.027975333333333</v>
       </c>
       <c r="H3">
-        <v>0.9834600000000001</v>
+        <v>3.083926</v>
       </c>
       <c r="I3">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="J3">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>51.019709</v>
       </c>
       <c r="O3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="P3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="Q3">
-        <v>5.575093668126668</v>
+        <v>17.48233412194822</v>
       </c>
       <c r="R3">
-        <v>50.17584301314</v>
+        <v>157.341007097534</v>
       </c>
       <c r="S3">
-        <v>0.00752307999956043</v>
+        <v>0.0222762235089148</v>
       </c>
       <c r="T3">
-        <v>0.00752307999956043</v>
+        <v>0.0222762235089148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3278200000000001</v>
+        <v>1.027975333333333</v>
       </c>
       <c r="H4">
-        <v>0.9834600000000001</v>
+        <v>3.083926</v>
       </c>
       <c r="I4">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="J4">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4244703333333333</v>
+        <v>0.740281</v>
       </c>
       <c r="N4">
-        <v>1.273411</v>
+        <v>2.220843</v>
       </c>
       <c r="O4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="P4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="Q4">
-        <v>0.1391498646733333</v>
+        <v>0.7609906077353332</v>
       </c>
       <c r="R4">
-        <v>1.25234878206</v>
+        <v>6.848915469617999</v>
       </c>
       <c r="S4">
-        <v>0.0001877700405018038</v>
+        <v>0.0009696643907986393</v>
       </c>
       <c r="T4">
-        <v>0.0001877700405018038</v>
+        <v>0.0009696643907986393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3278200000000001</v>
+        <v>1.027975333333333</v>
       </c>
       <c r="H5">
-        <v>0.9834600000000001</v>
+        <v>3.083926</v>
       </c>
       <c r="I5">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="J5">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.007616666666667</v>
+        <v>2.784013333333333</v>
       </c>
       <c r="N5">
-        <v>9.02285</v>
+        <v>8.352039999999999</v>
       </c>
       <c r="O5">
-        <v>0.139349191853143</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="P5">
-        <v>0.1393491918531429</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="Q5">
-        <v>0.9859568956666669</v>
+        <v>2.861897034337777</v>
       </c>
       <c r="R5">
-        <v>8.873612061000001</v>
+        <v>25.75707330904</v>
       </c>
       <c r="S5">
-        <v>0.001330458830606694</v>
+        <v>0.003646667404461219</v>
       </c>
       <c r="T5">
-        <v>0.001330458830606694</v>
+        <v>0.003646667404461219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3278200000000001</v>
+        <v>1.027975333333333</v>
       </c>
       <c r="H6">
-        <v>0.9834600000000001</v>
+        <v>3.083926</v>
       </c>
       <c r="I6">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="J6">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2431653333333333</v>
+        <v>0.2710316666666667</v>
       </c>
       <c r="N6">
-        <v>0.729496</v>
+        <v>0.813095</v>
       </c>
       <c r="O6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="P6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="Q6">
-        <v>0.07971445957333335</v>
+        <v>0.2786138678855555</v>
       </c>
       <c r="R6">
-        <v>0.7174301361600001</v>
+        <v>2.50752481097</v>
       </c>
       <c r="S6">
-        <v>0.0001075673867006834</v>
+        <v>0.0003550135096611601</v>
       </c>
       <c r="T6">
-        <v>0.0001075673867006834</v>
+        <v>0.0003550135096611601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3278200000000001</v>
+        <v>1.027975333333333</v>
       </c>
       <c r="H7">
-        <v>0.9834600000000001</v>
+        <v>3.083926</v>
       </c>
       <c r="I7">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="J7">
-        <v>0.009547660900745198</v>
+        <v>0.02924801085517982</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3996003333333333</v>
+        <v>0.436508</v>
       </c>
       <c r="N7">
-        <v>1.198801</v>
+        <v>1.309524</v>
       </c>
       <c r="O7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="P7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="Q7">
-        <v>0.1309969812733334</v>
+        <v>0.4487194568026666</v>
       </c>
       <c r="R7">
-        <v>1.17897283146</v>
+        <v>4.038475111224</v>
       </c>
       <c r="S7">
-        <v>0.0001767684685648255</v>
+        <v>0.0005717643217896075</v>
       </c>
       <c r="T7">
-        <v>0.0001767684685648255</v>
+        <v>0.0005717643217896075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>100.554517</v>
       </c>
       <c r="I8">
-        <v>0.9762068923537492</v>
+        <v>0.9536608870489641</v>
       </c>
       <c r="J8">
-        <v>0.9762068923537494</v>
+        <v>0.953660887048964</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5018866666666666</v>
+        <v>1.090710333333333</v>
       </c>
       <c r="N8">
-        <v>1.50566</v>
+        <v>3.272131</v>
       </c>
       <c r="O8">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="P8">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="Q8">
-        <v>16.82232378513555</v>
+        <v>36.55861691841412</v>
       </c>
       <c r="R8">
-        <v>151.40091406622</v>
+        <v>329.027552265727</v>
       </c>
       <c r="S8">
-        <v>0.02270019037305395</v>
+        <v>0.04658347769643426</v>
       </c>
       <c r="T8">
-        <v>0.02270019037305395</v>
+        <v>0.04658347769643426</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>100.554517</v>
       </c>
       <c r="I9">
-        <v>0.9762068923537492</v>
+        <v>0.9536608870489641</v>
       </c>
       <c r="J9">
-        <v>0.9762068923537494</v>
+        <v>0.953660887048964</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>51.019709</v>
       </c>
       <c r="O9">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="P9">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="Q9">
         <v>570.0291328861725</v>
@@ -1013,10 +1013,10 @@
         <v>5130.262195975553</v>
       </c>
       <c r="S9">
-        <v>0.7692022814432302</v>
+        <v>0.7263387304114861</v>
       </c>
       <c r="T9">
-        <v>0.7692022814432303</v>
+        <v>0.726338730411486</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>100.554517</v>
       </c>
       <c r="I10">
-        <v>0.9762068923537492</v>
+        <v>0.9536608870489641</v>
       </c>
       <c r="J10">
-        <v>0.9762068923537494</v>
+        <v>0.953660887048964</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4244703333333333</v>
+        <v>0.740281</v>
       </c>
       <c r="N10">
-        <v>1.273411</v>
+        <v>2.220843</v>
       </c>
       <c r="O10">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="P10">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="Q10">
-        <v>14.22746978305411</v>
+        <v>24.81286613309233</v>
       </c>
       <c r="R10">
-        <v>128.047228047487</v>
+        <v>223.315795197831</v>
       </c>
       <c r="S10">
-        <v>0.01919867176065048</v>
+        <v>0.03161688525238817</v>
       </c>
       <c r="T10">
-        <v>0.01919867176065048</v>
+        <v>0.03161688525238816</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>100.554517</v>
       </c>
       <c r="I11">
-        <v>0.9762068923537492</v>
+        <v>0.9536608870489641</v>
       </c>
       <c r="J11">
-        <v>0.9762068923537494</v>
+        <v>0.953660887048964</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.007616666666667</v>
+        <v>2.784013333333333</v>
       </c>
       <c r="N11">
-        <v>9.02285</v>
+        <v>8.352039999999999</v>
       </c>
       <c r="O11">
-        <v>0.139349191853143</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="P11">
-        <v>0.1393491918531429</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="Q11">
-        <v>100.8098137459389</v>
+        <v>93.31503868496442</v>
       </c>
       <c r="R11">
-        <v>907.28832371345</v>
+        <v>839.8353481646799</v>
       </c>
       <c r="S11">
-        <v>0.1360336415309631</v>
+        <v>0.1189032679497632</v>
       </c>
       <c r="T11">
-        <v>0.1360336415309631</v>
+        <v>0.1189032679497632</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1169,10 +1169,10 @@
         <v>100.554517</v>
       </c>
       <c r="I12">
-        <v>0.9762068923537492</v>
+        <v>0.9536608870489641</v>
       </c>
       <c r="J12">
-        <v>0.9762068923537494</v>
+        <v>0.953660887048964</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2431653333333333</v>
+        <v>0.2710316666666667</v>
       </c>
       <c r="N12">
-        <v>0.729496</v>
+        <v>0.813095</v>
       </c>
       <c r="O12">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="P12">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="Q12">
-        <v>8.15045754815911</v>
+        <v>9.084486111123889</v>
       </c>
       <c r="R12">
-        <v>73.35411793343201</v>
+        <v>81.760375000115</v>
       </c>
       <c r="S12">
-        <v>0.01099829847135566</v>
+        <v>0.01157557347110559</v>
       </c>
       <c r="T12">
-        <v>0.01099829847135566</v>
+        <v>0.01157557347110559</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>100.554517</v>
       </c>
       <c r="I13">
-        <v>0.9762068923537492</v>
+        <v>0.9536608870489641</v>
       </c>
       <c r="J13">
-        <v>0.9762068923537494</v>
+        <v>0.953660887048964</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3996003333333333</v>
+        <v>0.436508</v>
       </c>
       <c r="N13">
-        <v>1.198801</v>
+        <v>1.309524</v>
       </c>
       <c r="O13">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="P13">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="Q13">
-        <v>13.39387283712411</v>
+        <v>14.63095036887866</v>
       </c>
       <c r="R13">
-        <v>120.544855534117</v>
+        <v>131.678553319908</v>
       </c>
       <c r="S13">
-        <v>0.01807380877449587</v>
+        <v>0.01864295226778676</v>
       </c>
       <c r="T13">
-        <v>0.01807380877449587</v>
+        <v>0.01864295226778677</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.023649</v>
+        <v>0.6006983333333333</v>
       </c>
       <c r="H14">
-        <v>0.070947</v>
+        <v>1.802095</v>
       </c>
       <c r="I14">
-        <v>0.0006887701563105459</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="J14">
-        <v>0.0006887701563105459</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5018866666666666</v>
+        <v>1.090710333333333</v>
       </c>
       <c r="N14">
-        <v>1.50566</v>
+        <v>3.272131</v>
       </c>
       <c r="O14">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="P14">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="Q14">
-        <v>0.01186911778</v>
+        <v>0.6551878793827779</v>
       </c>
       <c r="R14">
-        <v>0.10682206002</v>
+        <v>5.896690914445001</v>
       </c>
       <c r="S14">
-        <v>1.601629100756417E-05</v>
+        <v>0.0008348491419769408</v>
       </c>
       <c r="T14">
-        <v>1.601629100756417E-05</v>
+        <v>0.0008348491419769408</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.023649</v>
+        <v>0.6006983333333333</v>
       </c>
       <c r="H15">
-        <v>0.070947</v>
+        <v>1.802095</v>
       </c>
       <c r="I15">
-        <v>0.0006887701563105459</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="J15">
-        <v>0.0006887701563105459</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>51.019709</v>
       </c>
       <c r="O15">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="P15">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="Q15">
-        <v>0.402188366047</v>
+        <v>10.21581805448389</v>
       </c>
       <c r="R15">
-        <v>3.619695294423</v>
+        <v>91.94236249035499</v>
       </c>
       <c r="S15">
-        <v>0.0005427164874309212</v>
+        <v>0.01301713173542355</v>
       </c>
       <c r="T15">
-        <v>0.0005427164874309212</v>
+        <v>0.01301713173542355</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.023649</v>
+        <v>0.6006983333333333</v>
       </c>
       <c r="H16">
-        <v>0.070947</v>
+        <v>1.802095</v>
       </c>
       <c r="I16">
-        <v>0.0006887701563105459</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="J16">
-        <v>0.0006887701563105459</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4244703333333333</v>
+        <v>0.740281</v>
       </c>
       <c r="N16">
-        <v>1.273411</v>
+        <v>2.220843</v>
       </c>
       <c r="O16">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="P16">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="Q16">
-        <v>0.010038298913</v>
+        <v>0.4446855628983333</v>
       </c>
       <c r="R16">
-        <v>0.09034469021699998</v>
+        <v>4.002170066085</v>
       </c>
       <c r="S16">
-        <v>1.354576806731486E-05</v>
+        <v>0.0005666242803284754</v>
       </c>
       <c r="T16">
-        <v>1.354576806731486E-05</v>
+        <v>0.0005666242803284754</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.023649</v>
+        <v>0.6006983333333333</v>
       </c>
       <c r="H17">
-        <v>0.070947</v>
+        <v>1.802095</v>
       </c>
       <c r="I17">
-        <v>0.0006887701563105459</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="J17">
-        <v>0.0006887701563105459</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.007616666666667</v>
+        <v>2.784013333333333</v>
       </c>
       <c r="N17">
-        <v>9.02285</v>
+        <v>8.352039999999999</v>
       </c>
       <c r="O17">
-        <v>0.139349191853143</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="P17">
-        <v>0.1393491918531429</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="Q17">
-        <v>0.07112712655</v>
+        <v>1.672352169311111</v>
       </c>
       <c r="R17">
-        <v>0.64014413895</v>
+        <v>15.0511695238</v>
       </c>
       <c r="S17">
-        <v>9.597956465443752E-05</v>
+        <v>0.002130933458274465</v>
       </c>
       <c r="T17">
-        <v>9.59795646544375E-05</v>
+        <v>0.002130933458274466</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.023649</v>
+        <v>0.6006983333333333</v>
       </c>
       <c r="H18">
-        <v>0.070947</v>
+        <v>1.802095</v>
       </c>
       <c r="I18">
-        <v>0.0006887701563105459</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="J18">
-        <v>0.0006887701563105459</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2431653333333333</v>
+        <v>0.2710316666666667</v>
       </c>
       <c r="N18">
-        <v>0.729496</v>
+        <v>0.813095</v>
       </c>
       <c r="O18">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="P18">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="Q18">
-        <v>0.005750616968000001</v>
+        <v>0.1628082704472222</v>
       </c>
       <c r="R18">
-        <v>0.051755552712</v>
+        <v>1.465274434025</v>
       </c>
       <c r="S18">
-        <v>7.759932670625528E-06</v>
+        <v>0.0002074524715226073</v>
       </c>
       <c r="T18">
-        <v>7.759932670625528E-06</v>
+        <v>0.0002074524715226073</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.023649</v>
+        <v>0.6006983333333333</v>
       </c>
       <c r="H19">
-        <v>0.070947</v>
+        <v>1.802095</v>
       </c>
       <c r="I19">
-        <v>0.0006887701563105459</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="J19">
-        <v>0.0006887701563105459</v>
+        <v>0.01709110209585615</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3996003333333333</v>
+        <v>0.436508</v>
       </c>
       <c r="N19">
-        <v>1.198801</v>
+        <v>1.309524</v>
       </c>
       <c r="O19">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="P19">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="Q19">
-        <v>0.009450148283</v>
+        <v>0.2622096280866666</v>
       </c>
       <c r="R19">
-        <v>0.08505133454699999</v>
+        <v>2.35988665278</v>
       </c>
       <c r="S19">
-        <v>1.275211247968262E-05</v>
+        <v>0.00033411100833011</v>
       </c>
       <c r="T19">
-        <v>1.275211247968262E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H20">
-        <v>1.39641</v>
-      </c>
-      <c r="I20">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J20">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.5018866666666666</v>
-      </c>
-      <c r="N20">
-        <v>1.50566</v>
-      </c>
-      <c r="O20">
-        <v>0.02325346250969518</v>
-      </c>
-      <c r="P20">
-        <v>0.02325346250969518</v>
-      </c>
-      <c r="Q20">
-        <v>0.2336131867333333</v>
-      </c>
-      <c r="R20">
-        <v>2.1025186806</v>
-      </c>
-      <c r="S20">
-        <v>0.0003152396708229056</v>
-      </c>
-      <c r="T20">
-        <v>0.0003152396708229057</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H21">
-        <v>1.39641</v>
-      </c>
-      <c r="I21">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J21">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>17.00656966666667</v>
-      </c>
-      <c r="N21">
-        <v>51.019709</v>
-      </c>
-      <c r="O21">
-        <v>0.7879500620904175</v>
-      </c>
-      <c r="P21">
-        <v>0.7879500620904175</v>
-      </c>
-      <c r="Q21">
-        <v>7.916047982743335</v>
-      </c>
-      <c r="R21">
-        <v>71.24443184469001</v>
-      </c>
-      <c r="S21">
-        <v>0.01068198416019582</v>
-      </c>
-      <c r="T21">
-        <v>0.01068198416019582</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H22">
-        <v>1.39641</v>
-      </c>
-      <c r="I22">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J22">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.4244703333333333</v>
-      </c>
-      <c r="N22">
-        <v>1.273411</v>
-      </c>
-      <c r="O22">
-        <v>0.01966660132296365</v>
-      </c>
-      <c r="P22">
-        <v>0.01966660132296365</v>
-      </c>
-      <c r="Q22">
-        <v>0.1975782060566667</v>
-      </c>
-      <c r="R22">
-        <v>1.77820385451</v>
-      </c>
-      <c r="S22">
-        <v>0.0002666137537440505</v>
-      </c>
-      <c r="T22">
-        <v>0.0002666137537440505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H23">
-        <v>1.39641</v>
-      </c>
-      <c r="I23">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J23">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.007616666666667</v>
-      </c>
-      <c r="N23">
-        <v>9.02285</v>
-      </c>
-      <c r="O23">
-        <v>0.139349191853143</v>
-      </c>
-      <c r="P23">
-        <v>0.1393491918531429</v>
-      </c>
-      <c r="Q23">
-        <v>1.399955329833334</v>
-      </c>
-      <c r="R23">
-        <v>12.5995979685</v>
-      </c>
-      <c r="S23">
-        <v>0.00188911192691873</v>
-      </c>
-      <c r="T23">
-        <v>0.00188911192691873</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H24">
-        <v>1.39641</v>
-      </c>
-      <c r="I24">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J24">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.2431653333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.729496</v>
-      </c>
-      <c r="O24">
-        <v>0.01126636019218987</v>
-      </c>
-      <c r="P24">
-        <v>0.01126636019218987</v>
-      </c>
-      <c r="Q24">
-        <v>0.1131861677066667</v>
-      </c>
-      <c r="R24">
-        <v>1.01867550936</v>
-      </c>
-      <c r="S24">
-        <v>0.0001527344014628976</v>
-      </c>
-      <c r="T24">
-        <v>0.0001527344014628976</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.4654700000000001</v>
-      </c>
-      <c r="H25">
-        <v>1.39641</v>
-      </c>
-      <c r="I25">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="J25">
-        <v>0.01355667658919489</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.3996003333333333</v>
-      </c>
-      <c r="N25">
-        <v>1.198801</v>
-      </c>
-      <c r="O25">
-        <v>0.01851432203159086</v>
-      </c>
-      <c r="P25">
-        <v>0.01851432203159086</v>
-      </c>
-      <c r="Q25">
-        <v>0.1860019671566667</v>
-      </c>
-      <c r="R25">
-        <v>1.67401770441</v>
-      </c>
-      <c r="S25">
-        <v>0.0002509926760504829</v>
-      </c>
-      <c r="T25">
-        <v>0.000250992676050483</v>
+        <v>0.00033411100833011</v>
       </c>
     </row>
   </sheetData>
